--- a/src/main/resources/reservationdata/reservation-drive-data.xlsx
+++ b/src/main/resources/reservationdata/reservation-drive-data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Booking Engine POC\booking-engine\booking-engine-reservation\src\main\resources\reservationdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="5445"/>
   </bookViews>
@@ -148,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +390,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
